--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Postn-Ptk7.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Postn-Ptk7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.06516739849192</v>
+        <v>10.459325</v>
       </c>
       <c r="H2">
-        <v>2.06516739849192</v>
+        <v>31.377975</v>
       </c>
       <c r="I2">
-        <v>0.004225799901310827</v>
+        <v>0.01983230002815326</v>
       </c>
       <c r="J2">
-        <v>0.004225799901310827</v>
+        <v>0.01983230002815326</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6389734174055109</v>
+        <v>2.121368</v>
       </c>
       <c r="N2">
-        <v>0.6389734174055109</v>
+        <v>6.364104</v>
       </c>
       <c r="O2">
-        <v>0.0548613486659171</v>
+        <v>0.1432906004545822</v>
       </c>
       <c r="P2">
-        <v>0.0548613486659171</v>
+        <v>0.1432906004545822</v>
       </c>
       <c r="Q2">
-        <v>1.319587070128831</v>
+        <v>22.1880773566</v>
       </c>
       <c r="R2">
-        <v>1.319587070128831</v>
+        <v>199.6926962094</v>
       </c>
       <c r="S2">
-        <v>0.0002318330817782113</v>
+        <v>0.002841782179429508</v>
       </c>
       <c r="T2">
-        <v>0.0002318330817782113</v>
+        <v>0.002841782179429508</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.06516739849192</v>
+        <v>10.459325</v>
       </c>
       <c r="H3">
-        <v>2.06516739849192</v>
+        <v>31.377975</v>
       </c>
       <c r="I3">
-        <v>0.004225799901310827</v>
+        <v>0.01983230002815326</v>
       </c>
       <c r="J3">
-        <v>0.004225799901310827</v>
+        <v>0.01983230002815326</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.0173057474458</v>
+        <v>5.023104666666667</v>
       </c>
       <c r="N3">
-        <v>5.0173057474458</v>
+        <v>15.069314</v>
       </c>
       <c r="O3">
-        <v>0.4307787342574979</v>
+        <v>0.3392922321034732</v>
       </c>
       <c r="P3">
-        <v>0.4307787342574979</v>
+        <v>0.3392922321034732</v>
       </c>
       <c r="Q3">
-        <v>10.3615762578912</v>
+        <v>52.53828421768333</v>
       </c>
       <c r="R3">
-        <v>10.3615762578912</v>
+        <v>472.84455795915</v>
       </c>
       <c r="S3">
-        <v>0.001820384732712137</v>
+        <v>0.006728945344297893</v>
       </c>
       <c r="T3">
-        <v>0.001820384732712137</v>
+        <v>0.006728945344297893</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +652,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.06516739849192</v>
+        <v>10.459325</v>
       </c>
       <c r="H4">
-        <v>2.06516739849192</v>
+        <v>31.377975</v>
       </c>
       <c r="I4">
-        <v>0.004225799901310827</v>
+        <v>0.01983230002815326</v>
       </c>
       <c r="J4">
-        <v>0.004225799901310827</v>
+        <v>0.01983230002815326</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.99078079527826</v>
+        <v>0.04621966666666667</v>
       </c>
       <c r="N4">
-        <v>5.99078079527826</v>
+        <v>0.138659</v>
       </c>
       <c r="O4">
-        <v>0.514359917076585</v>
+        <v>0.003121968366392491</v>
       </c>
       <c r="P4">
-        <v>0.514359917076585</v>
+        <v>0.003121968366392491</v>
       </c>
       <c r="Q4">
-        <v>12.37196518992016</v>
+        <v>0.4834265150583333</v>
       </c>
       <c r="R4">
-        <v>12.37196518992016</v>
+        <v>4.350838635525</v>
       </c>
       <c r="S4">
-        <v>0.002173582086820478</v>
+        <v>6.191581332069937E-05</v>
       </c>
       <c r="T4">
-        <v>0.002173582086820478</v>
+        <v>6.191581332069938E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>372.829553744357</v>
+        <v>10.459325</v>
       </c>
       <c r="H5">
-        <v>372.829553744357</v>
+        <v>31.377975</v>
       </c>
       <c r="I5">
-        <v>0.7628936485096404</v>
+        <v>0.01983230002815326</v>
       </c>
       <c r="J5">
-        <v>0.7628936485096404</v>
+        <v>0.01983230002815326</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6389734174055109</v>
+        <v>7.613963333333333</v>
       </c>
       <c r="N5">
-        <v>0.6389734174055109</v>
+        <v>22.84189</v>
       </c>
       <c r="O5">
-        <v>0.0548613486659171</v>
+        <v>0.5142951990755521</v>
       </c>
       <c r="P5">
-        <v>0.0548613486659171</v>
+        <v>0.5142951990755521</v>
       </c>
       <c r="Q5">
-        <v>238.2281740658034</v>
+        <v>79.63691704141667</v>
       </c>
       <c r="R5">
-        <v>238.2281740658034</v>
+        <v>716.7322533727499</v>
       </c>
       <c r="S5">
-        <v>0.04185337444590099</v>
+        <v>0.01019965669110516</v>
       </c>
       <c r="T5">
-        <v>0.04185337444590099</v>
+        <v>0.01019965669110516</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>372.829553744357</v>
+        <v>376.2593893333333</v>
       </c>
       <c r="H6">
-        <v>372.829553744357</v>
+        <v>1128.778168</v>
       </c>
       <c r="I6">
-        <v>0.7628936485096404</v>
+        <v>0.7134388784810103</v>
       </c>
       <c r="J6">
-        <v>0.7628936485096404</v>
+        <v>0.7134388784810103</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.0173057474458</v>
+        <v>2.121368</v>
       </c>
       <c r="N6">
-        <v>5.0173057474458</v>
+        <v>6.364104</v>
       </c>
       <c r="O6">
-        <v>0.4307787342574979</v>
+        <v>0.1432906004545822</v>
       </c>
       <c r="P6">
-        <v>0.4307787342574979</v>
+        <v>0.1432906004545822</v>
       </c>
       <c r="Q6">
-        <v>1870.599862819215</v>
+        <v>798.1846282312745</v>
       </c>
       <c r="R6">
-        <v>1870.599862819215</v>
+        <v>7183.661654081471</v>
       </c>
       <c r="S6">
-        <v>0.3286383602780674</v>
+        <v>0.1022290852851877</v>
       </c>
       <c r="T6">
-        <v>0.3286383602780674</v>
+        <v>0.1022290852851877</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>372.829553744357</v>
+        <v>376.2593893333333</v>
       </c>
       <c r="H7">
-        <v>372.829553744357</v>
+        <v>1128.778168</v>
       </c>
       <c r="I7">
-        <v>0.7628936485096404</v>
+        <v>0.7134388784810103</v>
       </c>
       <c r="J7">
-        <v>0.7628936485096404</v>
+        <v>0.7134388784810103</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.99078079527826</v>
+        <v>5.023104666666667</v>
       </c>
       <c r="N7">
-        <v>5.99078079527826</v>
+        <v>15.069314</v>
       </c>
       <c r="O7">
-        <v>0.514359917076585</v>
+        <v>0.3392922321034732</v>
       </c>
       <c r="P7">
-        <v>0.514359917076585</v>
+        <v>0.3392922321034732</v>
       </c>
       <c r="Q7">
-        <v>2233.540130483858</v>
+        <v>1889.990294437417</v>
       </c>
       <c r="R7">
-        <v>2233.540130483858</v>
+        <v>17009.91264993675</v>
       </c>
       <c r="S7">
-        <v>0.392401913785672</v>
+        <v>0.2420642695492206</v>
       </c>
       <c r="T7">
-        <v>0.392401913785672</v>
+        <v>0.2420642695492206</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.29876621523453</v>
+        <v>376.2593893333333</v>
       </c>
       <c r="H8">
-        <v>3.29876621523453</v>
+        <v>1128.778168</v>
       </c>
       <c r="I8">
-        <v>0.006750022277596062</v>
+        <v>0.7134388784810103</v>
       </c>
       <c r="J8">
-        <v>0.006750022277596062</v>
+        <v>0.7134388784810103</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.6389734174055109</v>
+        <v>0.04621966666666667</v>
       </c>
       <c r="N8">
-        <v>0.6389734174055109</v>
+        <v>0.138659</v>
       </c>
       <c r="O8">
-        <v>0.0548613486659171</v>
+        <v>0.003121968366392491</v>
       </c>
       <c r="P8">
-        <v>0.0548613486659171</v>
+        <v>0.003121968366392491</v>
       </c>
       <c r="Q8">
-        <v>2.107823921770251</v>
+        <v>17.39058355519022</v>
       </c>
       <c r="R8">
-        <v>2.107823921770251</v>
+        <v>156.515251996712</v>
       </c>
       <c r="S8">
-        <v>0.0003703153256739055</v>
+        <v>0.00222733360997225</v>
       </c>
       <c r="T8">
-        <v>0.0003703153256739055</v>
+        <v>0.002227333609972251</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.29876621523453</v>
+        <v>376.2593893333333</v>
       </c>
       <c r="H9">
-        <v>3.29876621523453</v>
+        <v>1128.778168</v>
       </c>
       <c r="I9">
-        <v>0.006750022277596062</v>
+        <v>0.7134388784810103</v>
       </c>
       <c r="J9">
-        <v>0.006750022277596062</v>
+        <v>0.7134388784810103</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.0173057474458</v>
+        <v>7.613963333333333</v>
       </c>
       <c r="N9">
-        <v>5.0173057474458</v>
+        <v>22.84189</v>
       </c>
       <c r="O9">
-        <v>0.4307787342574979</v>
+        <v>0.5142951990755521</v>
       </c>
       <c r="P9">
-        <v>0.4307787342574979</v>
+        <v>0.5142951990755521</v>
       </c>
       <c r="Q9">
-        <v>16.55091869117624</v>
+        <v>2864.825194206391</v>
       </c>
       <c r="R9">
-        <v>16.55091869117624</v>
+        <v>25783.42674785752</v>
       </c>
       <c r="S9">
-        <v>0.002907766052952745</v>
+        <v>0.3669181900366298</v>
       </c>
       <c r="T9">
-        <v>0.002907766052952745</v>
+        <v>0.3669181900366298</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,247 +1024,991 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.29876621523453</v>
+        <v>0.4776923333333333</v>
       </c>
       <c r="H10">
-        <v>3.29876621523453</v>
+        <v>1.433077</v>
       </c>
       <c r="I10">
-        <v>0.006750022277596062</v>
+        <v>0.0009057695095826224</v>
       </c>
       <c r="J10">
-        <v>0.006750022277596062</v>
+        <v>0.0009057695095826224</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.99078079527826</v>
+        <v>2.121368</v>
       </c>
       <c r="N10">
-        <v>5.99078079527826</v>
+        <v>6.364104</v>
       </c>
       <c r="O10">
-        <v>0.514359917076585</v>
+        <v>0.1432906004545822</v>
       </c>
       <c r="P10">
-        <v>0.514359917076585</v>
+        <v>0.1432906004545822</v>
       </c>
       <c r="Q10">
-        <v>19.76218529033977</v>
+        <v>1.013361229778667</v>
       </c>
       <c r="R10">
-        <v>19.76218529033977</v>
+        <v>9.120251068008001</v>
       </c>
       <c r="S10">
-        <v>0.003471940898969412</v>
+        <v>0.0001297882569015464</v>
       </c>
       <c r="T10">
-        <v>0.003471940898969412</v>
+        <v>0.0001297882569015464</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>110.511005689804</v>
+        <v>0.4776923333333333</v>
       </c>
       <c r="H11">
-        <v>110.511005689804</v>
+        <v>1.433077</v>
       </c>
       <c r="I11">
-        <v>0.2261305293114528</v>
+        <v>0.0009057695095826224</v>
       </c>
       <c r="J11">
-        <v>0.2261305293114528</v>
+        <v>0.0009057695095826224</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6389734174055109</v>
+        <v>5.023104666666667</v>
       </c>
       <c r="N11">
-        <v>0.6389734174055109</v>
+        <v>15.069314</v>
       </c>
       <c r="O11">
-        <v>0.0548613486659171</v>
+        <v>0.3392922321034732</v>
       </c>
       <c r="P11">
-        <v>0.0548613486659171</v>
+        <v>0.3392922321034732</v>
       </c>
       <c r="Q11">
-        <v>70.61359496653392</v>
+        <v>2.399498588797556</v>
       </c>
       <c r="R11">
-        <v>70.61359496653392</v>
+        <v>21.595487299178</v>
       </c>
       <c r="S11">
-        <v>0.012405825812564</v>
+        <v>0.0003073205586775562</v>
       </c>
       <c r="T11">
-        <v>0.012405825812564</v>
+        <v>0.0003073205586775562</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>110.511005689804</v>
+        <v>0.4776923333333333</v>
       </c>
       <c r="H12">
-        <v>110.511005689804</v>
+        <v>1.433077</v>
       </c>
       <c r="I12">
-        <v>0.2261305293114528</v>
+        <v>0.0009057695095826224</v>
       </c>
       <c r="J12">
-        <v>0.2261305293114528</v>
+        <v>0.0009057695095826224</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>5.0173057474458</v>
+        <v>0.04621966666666667</v>
       </c>
       <c r="N12">
-        <v>5.0173057474458</v>
+        <v>0.138659</v>
       </c>
       <c r="O12">
-        <v>0.4307787342574979</v>
+        <v>0.003121968366392491</v>
       </c>
       <c r="P12">
-        <v>0.4307787342574979</v>
+        <v>0.003121968366392491</v>
       </c>
       <c r="Q12">
-        <v>554.4675040034691</v>
+        <v>0.02207878041588889</v>
       </c>
       <c r="R12">
-        <v>554.4675040034691</v>
+        <v>0.198709023743</v>
       </c>
       <c r="S12">
-        <v>0.09741222319376566</v>
+        <v>2.827783756159787E-06</v>
       </c>
       <c r="T12">
-        <v>0.09741222319376566</v>
+        <v>2.827783756159787E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4776923333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.433077</v>
+      </c>
+      <c r="I13">
+        <v>0.0009057695095826224</v>
+      </c>
+      <c r="J13">
+        <v>0.0009057695095826224</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.613963333333333</v>
+      </c>
+      <c r="N13">
+        <v>22.84189</v>
+      </c>
+      <c r="O13">
+        <v>0.5142951990755521</v>
+      </c>
+      <c r="P13">
+        <v>0.5142951990755521</v>
+      </c>
+      <c r="Q13">
+        <v>3.637131910614444</v>
+      </c>
+      <c r="R13">
+        <v>32.73418719553</v>
+      </c>
+      <c r="S13">
+        <v>0.00046583291024736</v>
+      </c>
+      <c r="T13">
+        <v>0.00046583291024736</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.479517</v>
+      </c>
+      <c r="H14">
+        <v>10.438551</v>
+      </c>
+      <c r="I14">
+        <v>0.00659763656804428</v>
+      </c>
+      <c r="J14">
+        <v>0.00659763656804428</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.121368</v>
+      </c>
+      <c r="N14">
+        <v>6.364104</v>
+      </c>
+      <c r="O14">
+        <v>0.1432906004545822</v>
+      </c>
+      <c r="P14">
+        <v>0.1432906004545822</v>
+      </c>
+      <c r="Q14">
+        <v>7.381336019256</v>
+      </c>
+      <c r="R14">
+        <v>66.432024173304</v>
+      </c>
+      <c r="S14">
+        <v>0.000945379305416174</v>
+      </c>
+      <c r="T14">
+        <v>0.0009453793054161741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.479517</v>
+      </c>
+      <c r="H15">
+        <v>10.438551</v>
+      </c>
+      <c r="I15">
+        <v>0.00659763656804428</v>
+      </c>
+      <c r="J15">
+        <v>0.00659763656804428</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.023104666666667</v>
+      </c>
+      <c r="N15">
+        <v>15.069314</v>
+      </c>
+      <c r="O15">
+        <v>0.3392922321034732</v>
+      </c>
+      <c r="P15">
+        <v>0.3392922321034732</v>
+      </c>
+      <c r="Q15">
+        <v>17.477978080446</v>
+      </c>
+      <c r="R15">
+        <v>157.301802724014</v>
+      </c>
+      <c r="S15">
+        <v>0.002238526837779242</v>
+      </c>
+      <c r="T15">
+        <v>0.002238526837779242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.479517</v>
+      </c>
+      <c r="H16">
+        <v>10.438551</v>
+      </c>
+      <c r="I16">
+        <v>0.00659763656804428</v>
+      </c>
+      <c r="J16">
+        <v>0.00659763656804428</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.04621966666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.138659</v>
+      </c>
+      <c r="O16">
+        <v>0.003121968366392491</v>
+      </c>
+      <c r="P16">
+        <v>0.003121968366392491</v>
+      </c>
+      <c r="Q16">
+        <v>0.160822115901</v>
+      </c>
+      <c r="R16">
+        <v>1.447399043109</v>
+      </c>
+      <c r="S16">
+        <v>2.059761265838856E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.059761265838856E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.479517</v>
+      </c>
+      <c r="H17">
+        <v>10.438551</v>
+      </c>
+      <c r="I17">
+        <v>0.00659763656804428</v>
+      </c>
+      <c r="J17">
+        <v>0.00659763656804428</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.613963333333333</v>
+      </c>
+      <c r="N17">
+        <v>22.84189</v>
+      </c>
+      <c r="O17">
+        <v>0.5142951990755521</v>
+      </c>
+      <c r="P17">
+        <v>0.5142951990755521</v>
+      </c>
+      <c r="Q17">
+        <v>26.49291485571</v>
+      </c>
+      <c r="R17">
+        <v>238.43623370139</v>
+      </c>
+      <c r="S17">
+        <v>0.003393132812190475</v>
+      </c>
+      <c r="T17">
+        <v>0.003393132812190476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.270659</v>
+      </c>
+      <c r="H18">
+        <v>0.8119769999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.0005132062053067413</v>
+      </c>
+      <c r="J18">
+        <v>0.0005132062053067413</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.121368</v>
+      </c>
+      <c r="N18">
+        <v>6.364104</v>
+      </c>
+      <c r="O18">
+        <v>0.1432906004545822</v>
+      </c>
+      <c r="P18">
+        <v>0.1432906004545822</v>
+      </c>
+      <c r="Q18">
+        <v>0.574167341512</v>
+      </c>
+      <c r="R18">
+        <v>5.167506073608</v>
+      </c>
+      <c r="S18">
+        <v>7.353762531542056E-05</v>
+      </c>
+      <c r="T18">
+        <v>7.353762531542056E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.270659</v>
+      </c>
+      <c r="H19">
+        <v>0.8119769999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.0005132062053067413</v>
+      </c>
+      <c r="J19">
+        <v>0.0005132062053067413</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.023104666666667</v>
+      </c>
+      <c r="N19">
+        <v>15.069314</v>
+      </c>
+      <c r="O19">
+        <v>0.3392922321034732</v>
+      </c>
+      <c r="P19">
+        <v>0.3392922321034732</v>
+      </c>
+      <c r="Q19">
+        <v>1.359548485975333</v>
+      </c>
+      <c r="R19">
+        <v>12.235936373778</v>
+      </c>
+      <c r="S19">
+        <v>0.0001741268789278776</v>
+      </c>
+      <c r="T19">
+        <v>0.0001741268789278776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.270659</v>
+      </c>
+      <c r="H20">
+        <v>0.8119769999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.0005132062053067413</v>
+      </c>
+      <c r="J20">
+        <v>0.0005132062053067413</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.04621966666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.138659</v>
+      </c>
+      <c r="O20">
+        <v>0.003121968366392491</v>
+      </c>
+      <c r="P20">
+        <v>0.003121968366392491</v>
+      </c>
+      <c r="Q20">
+        <v>0.01250976876033333</v>
+      </c>
+      <c r="R20">
+        <v>0.112587918843</v>
+      </c>
+      <c r="S20">
+        <v>1.602213538403976E-06</v>
+      </c>
+      <c r="T20">
+        <v>1.602213538403977E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.270659</v>
+      </c>
+      <c r="H21">
+        <v>0.8119769999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.0005132062053067413</v>
+      </c>
+      <c r="J21">
+        <v>0.0005132062053067413</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.613963333333333</v>
+      </c>
+      <c r="N21">
+        <v>22.84189</v>
+      </c>
+      <c r="O21">
+        <v>0.5142951990755521</v>
+      </c>
+      <c r="P21">
+        <v>0.5142951990755521</v>
+      </c>
+      <c r="Q21">
+        <v>2.060787701836666</v>
+      </c>
+      <c r="R21">
+        <v>18.54708931653</v>
+      </c>
+      <c r="S21">
+        <v>0.0002639394875250392</v>
+      </c>
+      <c r="T21">
+        <v>0.0002639394875250392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>136.4418183333333</v>
+      </c>
+      <c r="H22">
+        <v>409.325455</v>
+      </c>
+      <c r="I22">
+        <v>0.2587122092079028</v>
+      </c>
+      <c r="J22">
+        <v>0.2587122092079028</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.121368</v>
+      </c>
+      <c r="N22">
+        <v>6.364104</v>
+      </c>
+      <c r="O22">
+        <v>0.1432906004545822</v>
+      </c>
+      <c r="P22">
+        <v>0.1432906004545822</v>
+      </c>
+      <c r="Q22">
+        <v>289.4433072741466</v>
+      </c>
+      <c r="R22">
+        <v>2604.98976546732</v>
+      </c>
+      <c r="S22">
+        <v>0.03707102780233189</v>
+      </c>
+      <c r="T22">
+        <v>0.03707102780233189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>136.4418183333333</v>
+      </c>
+      <c r="H23">
+        <v>409.325455</v>
+      </c>
+      <c r="I23">
+        <v>0.2587122092079028</v>
+      </c>
+      <c r="J23">
+        <v>0.2587122092079028</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.023104666666667</v>
+      </c>
+      <c r="N23">
+        <v>15.069314</v>
+      </c>
+      <c r="O23">
+        <v>0.3392922321034732</v>
+      </c>
+      <c r="P23">
+        <v>0.3392922321034732</v>
+      </c>
+      <c r="Q23">
+        <v>685.3615343986521</v>
+      </c>
+      <c r="R23">
+        <v>6168.25380958787</v>
+      </c>
+      <c r="S23">
+        <v>0.08777904293457006</v>
+      </c>
+      <c r="T23">
+        <v>0.08777904293457009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>110.511005689804</v>
-      </c>
-      <c r="H13">
-        <v>110.511005689804</v>
-      </c>
-      <c r="I13">
-        <v>0.2261305293114528</v>
-      </c>
-      <c r="J13">
-        <v>0.2261305293114528</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.99078079527826</v>
-      </c>
-      <c r="N13">
-        <v>5.99078079527826</v>
-      </c>
-      <c r="O13">
-        <v>0.514359917076585</v>
-      </c>
-      <c r="P13">
-        <v>0.514359917076585</v>
-      </c>
-      <c r="Q13">
-        <v>662.0472105533643</v>
-      </c>
-      <c r="R13">
-        <v>662.0472105533643</v>
-      </c>
-      <c r="S13">
-        <v>0.1163124803051231</v>
-      </c>
-      <c r="T13">
-        <v>0.1163124803051231</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>136.4418183333333</v>
+      </c>
+      <c r="H24">
+        <v>409.325455</v>
+      </c>
+      <c r="I24">
+        <v>0.2587122092079028</v>
+      </c>
+      <c r="J24">
+        <v>0.2587122092079028</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.04621966666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.138659</v>
+      </c>
+      <c r="O24">
+        <v>0.003121968366392491</v>
+      </c>
+      <c r="P24">
+        <v>0.003121968366392491</v>
+      </c>
+      <c r="Q24">
+        <v>6.306295362760554</v>
+      </c>
+      <c r="R24">
+        <v>56.756658264845</v>
+      </c>
+      <c r="S24">
+        <v>0.0008076913331465885</v>
+      </c>
+      <c r="T24">
+        <v>0.0008076913331465888</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>136.4418183333333</v>
+      </c>
+      <c r="H25">
+        <v>409.325455</v>
+      </c>
+      <c r="I25">
+        <v>0.2587122092079028</v>
+      </c>
+      <c r="J25">
+        <v>0.2587122092079028</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.613963333333333</v>
+      </c>
+      <c r="N25">
+        <v>22.84189</v>
+      </c>
+      <c r="O25">
+        <v>0.5142951990755521</v>
+      </c>
+      <c r="P25">
+        <v>0.5142951990755521</v>
+      </c>
+      <c r="Q25">
+        <v>1038.863001923328</v>
+      </c>
+      <c r="R25">
+        <v>9349.767017309949</v>
+      </c>
+      <c r="S25">
+        <v>0.1330544471378542</v>
+      </c>
+      <c r="T25">
+        <v>0.1330544471378543</v>
       </c>
     </row>
   </sheetData>
